--- a/VSTips.xlsx
+++ b/VSTips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\VSTips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B6942-A5EE-4519-BD32-10B5D0861064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC168CF-2B68-47BC-8F16-8238CD2A796B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45FA8023-CE65-4427-B3AD-1FEDBC78C3D5}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="154">
   <si>
     <t>Category</t>
   </si>
@@ -489,13 +488,19 @@
   </si>
   <si>
     <t>https://hutchcodes.net/2019/04/visual-studio-tips-editing-shortcuts/</t>
+  </si>
+  <si>
+    <t>https://hutchcodes.net/2019/04/visual-studio-tips-code-definition-keyboard-shortcuts/</t>
+  </si>
+  <si>
+    <t>https://hutchcodes.net/2019/04/visual-studio-tips-test-explorer/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,13 +516,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -529,15 +546,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -853,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB29BD7D-6726-4C8F-9E83-B7576FA94D25}">
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,6 +1366,9 @@
       <c r="C36" t="s">
         <v>48</v>
       </c>
+      <c r="D36" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1357,6 +1380,9 @@
       <c r="C37" t="s">
         <v>49</v>
       </c>
+      <c r="D37" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1368,6 +1394,9 @@
       <c r="C38" t="s">
         <v>50</v>
       </c>
+      <c r="D38" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1379,6 +1408,9 @@
       <c r="C39" t="s">
         <v>51</v>
       </c>
+      <c r="D39" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1390,6 +1422,9 @@
       <c r="C40" t="s">
         <v>52</v>
       </c>
+      <c r="D40" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -1834,6 +1869,9 @@
       <c r="C85" t="s">
         <v>104</v>
       </c>
+      <c r="D85" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -1842,6 +1880,9 @@
       <c r="C86" t="s">
         <v>105</v>
       </c>
+      <c r="D86" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
@@ -1850,6 +1891,9 @@
       <c r="C87" t="s">
         <v>106</v>
       </c>
+      <c r="D87" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -1858,16 +1902,22 @@
       <c r="C88" t="s">
         <v>107</v>
       </c>
+      <c r="D88" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>34</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -1878,7 +1928,7 @@
         <v>115</v>
       </c>
       <c r="C90" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>146</v>
@@ -1892,101 +1942,98 @@
         <v>115</v>
       </c>
       <c r="C91" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B92" t="s">
-        <v>115</v>
-      </c>
-      <c r="C92" t="s">
-        <v>116</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="B92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C93" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="C93" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="C94" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="C95" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="C96" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="C97" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C98" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="C98" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C99" t="s">
-        <v>109</v>
+      <c r="C99" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -2098,13 +2145,22 @@
     <hyperlink ref="D24" r:id="rId14" xr:uid="{FF210229-E9F2-40DC-8E3B-28A38487074C}"/>
     <hyperlink ref="D25" r:id="rId15" xr:uid="{4A1C4B99-BE60-4295-AFF4-F6C6B2FBADE5}"/>
     <hyperlink ref="D15" r:id="rId16" xr:uid="{BC4726A8-5BFC-4ECA-A118-8921DEA4B96D}"/>
-    <hyperlink ref="D90" r:id="rId17" xr:uid="{67D98544-561A-48F2-8291-3C7285728DF0}"/>
-    <hyperlink ref="D91" r:id="rId18" xr:uid="{4CD5C3C4-5DF5-462C-AFDE-BC546F47AB36}"/>
-    <hyperlink ref="D92" r:id="rId19" xr:uid="{DBB925CD-8202-419E-85DB-987D891CD62B}"/>
+    <hyperlink ref="D89" r:id="rId17" xr:uid="{67D98544-561A-48F2-8291-3C7285728DF0}"/>
+    <hyperlink ref="D90" r:id="rId18" xr:uid="{4CD5C3C4-5DF5-462C-AFDE-BC546F47AB36}"/>
+    <hyperlink ref="D91" r:id="rId19" xr:uid="{DBB925CD-8202-419E-85DB-987D891CD62B}"/>
     <hyperlink ref="D69" r:id="rId20" xr:uid="{61D2E5AB-4958-479E-B43D-C325680815A0}"/>
+    <hyperlink ref="D36" r:id="rId21" xr:uid="{BDD45BB3-3B69-417A-8238-767B14A156AB}"/>
+    <hyperlink ref="D37" r:id="rId22" xr:uid="{7A250956-FDF5-4776-8C3B-2A6E2421EE31}"/>
+    <hyperlink ref="D38" r:id="rId23" xr:uid="{40C2E3EC-18AE-4115-863B-B92F9FAAB437}"/>
+    <hyperlink ref="D39" r:id="rId24" xr:uid="{FE354835-622A-4AC0-ACED-BDA5635CA872}"/>
+    <hyperlink ref="D40" r:id="rId25" xr:uid="{3CB25463-CB93-47C9-A358-7F9BCC9DBEF0}"/>
+    <hyperlink ref="D85" r:id="rId26" xr:uid="{B3975BB8-E879-4F99-9565-FFD111C30916}"/>
+    <hyperlink ref="D86" r:id="rId27" xr:uid="{540B0A5F-E844-4FE2-B9CE-BAA6C4F55AE4}"/>
+    <hyperlink ref="D87" r:id="rId28" xr:uid="{C6885693-D0C8-4EEA-86D4-39A8EB671C87}"/>
+    <hyperlink ref="D88" r:id="rId29" xr:uid="{C27506E6-B2B7-4231-AC2C-47BE3278ACC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId30"/>
 </worksheet>
 </file>
 

--- a/VSTips.xlsx
+++ b/VSTips.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\VSTips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457C3D3F-7ABC-472E-9283-036BB4C7C3D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B6942-A5EE-4519-BD32-10B5D0861064}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{45FA8023-CE65-4427-B3AD-1FEDBC78C3D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45FA8023-CE65-4427-B3AD-1FEDBC78C3D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="152">
   <si>
     <t>Category</t>
   </si>
@@ -316,9 +317,6 @@
     <t>Bulk</t>
   </si>
   <si>
-    <t>Bullk</t>
-  </si>
-  <si>
     <t>Multiple Carets</t>
   </si>
   <si>
@@ -488,6 +486,9 @@
   </si>
   <si>
     <t>Nunint Test Creator</t>
+  </si>
+  <si>
+    <t>https://hutchcodes.net/2019/04/visual-studio-tips-editing-shortcuts/</t>
   </si>
 </sst>
 </file>
@@ -852,19 +853,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB29BD7D-6726-4C8F-9E83-B7576FA94D25}">
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
-    <col min="4" max="4" width="36.26953125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -878,7 +879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -892,7 +893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -906,7 +907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -918,7 +919,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -932,7 +933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -944,7 +945,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -956,7 +957,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -968,7 +969,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -980,7 +981,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -992,7 +993,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1016,7 +1017,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1030,7 +1031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1055,10 +1056,10 @@
         <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1083,10 +1084,10 @@
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1097,10 +1098,10 @@
         <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1108,13 +1109,13 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -1122,13 +1123,13 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1139,10 +1140,10 @@
         <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1153,10 +1154,10 @@
         <v>35</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1167,10 +1168,10 @@
         <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1181,10 +1182,10 @@
         <v>37</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1195,10 +1196,10 @@
         <v>38</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1220,10 +1221,10 @@
         <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1234,10 +1235,10 @@
         <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1248,10 +1249,10 @@
         <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1262,10 +1263,10 @@
         <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1276,10 +1277,10 @@
         <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1290,10 +1291,10 @@
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1301,13 +1302,13 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1315,13 +1316,13 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1329,13 +1330,13 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" t="s">
         <v>143</v>
       </c>
-      <c r="D35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -1357,7 +1358,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -1400,8 +1401,11 @@
       <c r="C41" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D41" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -1412,7 +1416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -1445,7 +1449,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -1456,7 +1460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1467,7 +1471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -1475,10 +1479,10 @@
         <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1486,10 +1490,10 @@
         <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -1500,7 +1504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1522,7 +1526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1533,7 +1537,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1544,7 +1548,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -1560,7 +1564,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1568,7 +1572,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -1576,7 +1580,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -1584,7 +1588,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1592,7 +1596,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1600,7 +1604,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -1611,7 +1615,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1633,7 +1637,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -1641,15 +1645,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>83</v>
       </c>
@@ -1657,7 +1661,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -1665,7 +1669,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -1675,19 +1679,25 @@
       <c r="C69" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D69" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -1695,7 +1705,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>86</v>
       </c>
@@ -1703,7 +1713,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -1711,10 +1721,10 @@
         <v>88</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -1722,7 +1732,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -1733,7 +1743,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -1741,7 +1751,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -1749,214 +1759,217 @@
         <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="D77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="B80" t="s">
+        <v>97</v>
+      </c>
+      <c r="C80" t="s">
         <v>98</v>
       </c>
-      <c r="C80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="C82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>100</v>
+      </c>
+      <c r="C83" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>101</v>
       </c>
-      <c r="C82" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>101</v>
-      </c>
-      <c r="C83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="C84" t="s">
         <v>102</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="C85" t="s">
         <v>104</v>
       </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>104</v>
-      </c>
-      <c r="C86" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>104</v>
-      </c>
-      <c r="C88" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>109</v>
       </c>
       <c r="B89" t="s">
         <v>23</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C90" t="s">
         <v>34</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C91" t="s">
         <v>109</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" t="s">
+        <v>115</v>
+      </c>
+      <c r="C92" t="s">
         <v>116</v>
       </c>
-      <c r="C91" t="s">
-        <v>110</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>109</v>
-      </c>
-      <c r="B92" t="s">
-        <v>116</v>
-      </c>
-      <c r="C92" t="s">
-        <v>117</v>
-      </c>
       <c r="D92" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
         <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95" t="s">
         <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B96" t="s">
         <v>23</v>
       </c>
       <c r="C96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B97" t="s">
         <v>23</v>
       </c>
       <c r="C97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B98" t="s">
         <v>23</v>
@@ -1965,106 +1978,106 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99" t="s">
         <v>23</v>
       </c>
       <c r="C99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>83</v>
       </c>
       <c r="C100" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="C101" t="s">
         <v>121</v>
       </c>
-      <c r="C101" t="s">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="C103" t="s">
         <v>124</v>
       </c>
-      <c r="C103" t="s">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>101</v>
+      </c>
+      <c r="C104" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>102</v>
-      </c>
-      <c r="C104" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>101</v>
+      </c>
+      <c r="C105" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>102</v>
-      </c>
-      <c r="C105" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C106" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="C107" t="s">
         <v>130</v>
       </c>
-      <c r="C107" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>83</v>
       </c>
       <c r="C108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>101</v>
+      </c>
+      <c r="C109" t="s">
+        <v>133</v>
+      </c>
+      <c r="E109" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>102</v>
-      </c>
-      <c r="C109" t="s">
-        <v>134</v>
-      </c>
-      <c r="E109" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>83</v>
       </c>
       <c r="C110" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2088,9 +2101,10 @@
     <hyperlink ref="D90" r:id="rId17" xr:uid="{67D98544-561A-48F2-8291-3C7285728DF0}"/>
     <hyperlink ref="D91" r:id="rId18" xr:uid="{4CD5C3C4-5DF5-462C-AFDE-BC546F47AB36}"/>
     <hyperlink ref="D92" r:id="rId19" xr:uid="{DBB925CD-8202-419E-85DB-987D891CD62B}"/>
+    <hyperlink ref="D69" r:id="rId20" xr:uid="{61D2E5AB-4958-479E-B43D-C325680815A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -2098,34 +2112,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1E444E-9B4A-4D90-ABFE-31B07175DBEE}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/VSTips.xlsx
+++ b/VSTips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\VSTips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC168CF-2B68-47BC-8F16-8238CD2A796B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E89DBFF-4DDB-4687-8641-CA0886AE6E44}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{45FA8023-CE65-4427-B3AD-1FEDBC78C3D5}"/>
+    <workbookView xWindow="0" yWindow="1404" windowWidth="23040" windowHeight="10956" xr2:uid="{45FA8023-CE65-4427-B3AD-1FEDBC78C3D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="155">
   <si>
     <t>Category</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>https://hutchcodes.net/2019/04/visual-studio-tips-test-explorer/</t>
+  </si>
+  <si>
+    <t>Code Cleanup</t>
   </si>
 </sst>
 </file>
@@ -871,17 +874,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB29BD7D-6726-4C8F-9E83-B7576FA94D25}">
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2125,6 +2128,14 @@
       </c>
       <c r="C110" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>86</v>
+      </c>
+      <c r="C111" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2200,5 +2211,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>